--- a/medicine/Psychotrope/Raymond_Boulanger/Raymond_Boulanger.xlsx
+++ b/medicine/Psychotrope/Raymond_Boulanger/Raymond_Boulanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Raymond Boulanger dit « le pilote de Casey » était un pilote de brousse et trafiquant de drogue québécois, né en 1948 à Rimouski et mort le 19 mars 2024 dans son condo de Montréal[1]. Sa mort, de causes naturelles, est liée à un cancer rare qu'il combattait depuis des années.
-Raymond a transporté de nombreux kilos de cocaïne pour le compte de Pablo Escobar et du cartel de Medellin. Il est le seul Québécois ayant travaillé avec Pablo[2].
+Raymond Boulanger dit « le pilote de Casey » était un pilote de brousse et trafiquant de drogue québécois, né en 1948 à Rimouski et mort le 19 mars 2024 dans son condo de Montréal. Sa mort, de causes naturelles, est liée à un cancer rare qu'il combattait depuis des années.
+Raymond a transporté de nombreux kilos de cocaïne pour le compte de Pablo Escobar et du cartel de Medellin. Il est le seul Québécois ayant travaillé avec Pablo.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Carrière criminelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a commencé à livrer de la drogue au début de sa vie d’adulte dans les années 1970 pour les Colombiens. Il a également formé plusieurs pilotes ainsi que construit différentes pistes d’atterrissage dans la jungle[1].
-Durant les années 1980, Raymond Boulanger a travaillé pour la CIA[1],[2],[3].
-En novembre 1992, il est arrêté à la suite d’une des plus grosses importations de drogue au Canada. Il a posé son avion, un Convair 580 avec un peu plus de 4 300 kg de cocaïne[3] sur une ancienne piste d’atterrissage militaire à Casey dans la Haute-Mauricie. L’appareil était sous surveillance et des policiers l’attendaient de pied ferme, dans une embuscade. Raymond a été condamné à 23 ans de prison. Il obtient une libération conditionnelle en 2013.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a commencé à livrer de la drogue au début de sa vie d’adulte dans les années 1970 pour les Colombiens. Il a également formé plusieurs pilotes ainsi que construit différentes pistes d’atterrissage dans la jungle.
+Durant les années 1980, Raymond Boulanger a travaillé pour la CIA.
+En novembre 1992, il est arrêté à la suite d’une des plus grosses importations de drogue au Canada. Il a posé son avion, un Convair 580 avec un peu plus de 4 300 kg de cocaïne sur une ancienne piste d’atterrissage militaire à Casey dans la Haute-Mauricie. L’appareil était sous surveillance et des policiers l’attendaient de pied ferme, dans une embuscade. Raymond a été condamné à 23 ans de prison. Il obtient une libération conditionnelle en 2013.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Évasions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond s’est évadé à deux reprises de prison, en 1998 et en 2000[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond s’est évadé à deux reprises de prison, en 1998 et en 2000.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Télévision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, l’histoire de Raymond a fait l’objet d’une sérié-documentaire intitulée « Le dernier vol de Raymond Boulanger »[4],[5].
-Une télé-série mettant en vedette son histoire avec le comédien Patrick Huard devait aussi être créée, mais n’a jamais vu le jour[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, l’histoire de Raymond a fait l’objet d’une sérié-documentaire intitulée « Le dernier vol de Raymond Boulanger »,.
+Une télé-série mettant en vedette son histoire avec le comédien Patrick Huard devait aussi être créée, mais n’a jamais vu le jour.
 </t>
         </is>
       </c>
